--- a/biology/Botanique/Polyscias/Polyscias.xlsx
+++ b/biology/Botanique/Polyscias/Polyscias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Polyscias regroupe  environ 100 espèces de plantes herbacées et d'arbustes de la famille des Araliaceae.
 Polyscias est un genre à feuilles persistantes rencontré sous les tropiques, dans les îles du Pacifique et en Australie, mais aussi répandu en Nouvelle-Guinée, Nouvelle-Calédonie et aux îles Mascareignes. 
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Selon ITIS
-Polyscias cumingiana (K. Presl) Fernandez-Villar
+          <t>Selon ITIS</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Polyscias cumingiana (K. Presl) Fernandez-Villar
 Polyscias flynnii (Lowry &amp; K.R. Wood) Lowry &amp; G.M. Plunkett
 Polyscias fruticosa (L.) H.A.T. Harms
 Polyscias guilfoylei (Bull ex Cogn. &amp; E. March.) Bailey
@@ -531,8 +548,7 @@
 Polyscias scutellaria (Burm. f.) Fosberg
 Polyscias subcapitata Kanehira
 Polyscias waialealae (Rock) Lowry &amp; G.M. Plunkett
-Polyscias waimeae (Wawra) Lowry &amp; G.M. Plunkett
-Espèces</t>
+Polyscias waimeae (Wawra) Lowry &amp; G.M. Plunkett</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bonnierella R.Vig.
 Botryopanax Miq.
@@ -576,7 +594,7 @@
 Sciadopanax Seem.
 Tieghemopanax R.Vig.
 Montagueia Baker f. (1921).
-Shirleyopanax Domin (1928), pro syn[2].</t>
+Shirleyopanax Domin (1928), pro syn.</t>
         </is>
       </c>
     </row>
